--- a/base-markdown/temporary/ShvrInf.xlsx
+++ b/base-markdown/temporary/ShvrInf.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KitoWork\github\help3x.github.io\base-markdown\temporary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13815" windowHeight="9900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13815" windowHeight="9900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Spec" sheetId="3" r:id="rId2"/>
+    <sheet name="作業時間" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="161">
   <si>
     <t>10,000円キャッシュバック</t>
   </si>
@@ -307,6 +308,1041 @@
   </si>
   <si>
     <t>5 方向に可動するヘッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業時間記録</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業内容</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルの初期化</t>
+    <rPh sb="5" eb="8">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルのインポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受領基礎表とインポートしたデータの基礎表を確認</t>
+    <rPh sb="0" eb="2">
+      <t>ジュリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所要</t>
+    <rPh sb="0" eb="2">
+      <t>ショヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>影響範囲整理のため、受領基礎表とインポートしたデータの基礎表の差分を確認する。</t>
+    <rPh sb="0" eb="2">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジュリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績修正（インポート用）</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月報告に戻してインポート</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>途中トイレ</t>
+    <rPh sb="0" eb="2">
+      <t>トチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>間違えた。11月報告の基礎表を使ってインポートするんだった。</t>
+    <rPh sb="0" eb="2">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月報告をインポート。インポート後のデータをExcelに貼り付ける。</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差分を抽出してDelete-Insert文を作る。</t>
+    <rPh sb="0" eb="2">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受領資料の10月実績と、インポート後に出力した11月報告の10月実績が同じことを目視確認。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>モクシ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月報告に戻して基礎表出力。10月実績に値が反映されていないことを確認。</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月報告の10月実績も直るようにSQLを作る。SQL*Plusで流れることまで確認。</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月報告の10月実績を確認。受領資料と一致すること。</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジュリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いったんデータを元に戻す。</t>
+    <rPh sb="8" eb="9">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納品SQLを実行。</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月報告と12月報告の基礎表を出力して、10月実績の一致を確認する。</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月報告全体としては一致すんの？</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　… 一致していない項目が多々あり。しかし、10月実績ではないので無視する。</t>
+    <rPh sb="3" eb="5">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タタ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納品用メールを書く</t>
+    <rPh sb="0" eb="3">
+      <t>ノウヒンヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイレ、コーヒー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールを送信</t>
+    <rPh sb="4" eb="6">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後始末とかOracleXE 停止とか。</t>
+    <rPh sb="0" eb="3">
+      <t>アトシマツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017-12-22　業績BIT　10月実績メンテナンス</t>
+    <rPh sb="11" eb="13">
+      <t>ギョウセキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーソナルコンフォート設定</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3段階のスピード調整</t>
+    <rPh sb="1" eb="3">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>センシティブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肌の敏感な箇所をそるのに最適な優しいそり心地</t>
+    <rPh sb="0" eb="1">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ビンカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイテキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヤサ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ココチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノーマル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常のシェービングに最適</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイスピード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒゲが密集している箇所や、時間を節約したい場合</t>
+    <rPh sb="3" eb="5">
+      <t>ミッシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セツヤク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S9732/33</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S9552/12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S9186/26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S9186/12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S8980/13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刃の種類</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刃の枚数</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッド可動</t>
+    <rPh sb="3" eb="5">
+      <t>カドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴</t>
+    <rPh sb="0" eb="2">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>－</t>
+  </si>
+  <si>
+    <t>－</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダブルVトラック刃</t>
+    <rPh sb="8" eb="9">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>72枚刃（24枚×3）</t>
+    <rPh sb="2" eb="3">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパーリフト＆カット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動研磨システム</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お風呂シェーブ対応</t>
+    <rPh sb="1" eb="3">
+      <t>フロ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本体丸洗い</t>
+    <rPh sb="0" eb="2">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マルアラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロック機能</t>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SERIES 9000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SERIES 5000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S5216/06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S5252/12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S5076/06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S5050/05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルチプレシジョン刃</t>
+    <rPh sb="9" eb="10">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンフォートカット刃</t>
+    <rPh sb="9" eb="10">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>27枚刃（9枚×3）</t>
+    <rPh sb="2" eb="3">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5方向100°可動（フレックスヘッド）</t>
+    <rPh sb="1" eb="3">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>密着度　■■■■□</t>
+    <rPh sb="0" eb="2">
+      <t>ミッチャク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深剃り度　■■■□□</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肌へのやさしさ　■■■□□</t>
+    <rPh sb="0" eb="1">
+      <t>ハダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>密着度　■■■■■</t>
+    <rPh sb="0" eb="2">
+      <t>ミッチャク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深剃り度　■■■■■</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肌へのやさしさ　■■■■□</t>
+    <rPh sb="0" eb="1">
+      <t>ハダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※■が多いほど優れている。</t>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8方向130°可動（輪郭検知テクノロジー）</t>
+    <rPh sb="1" eb="3">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リンカク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型番</t>
+    <rPh sb="0" eb="2">
+      <t>カタバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※■が多いほど優れています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S9732/33
+S9552/12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S9186/26
+S9186/12
+S8980/13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーソナルコンフォート設定（3段階のスピード調整機能）</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S5216/06
+S5252/12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S5076/06
+S5050/05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深剃り度　　　　■■■■■</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>密着度　　　　　■■■■■</t>
+    <rPh sb="0" eb="2">
+      <t>ミッチャク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深剃り度　　　　■■■□□</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>密着度　　　　　■■■■□</t>
+    <rPh sb="0" eb="2">
+      <t>ミッチャク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本性能で見た分類（2017年秋？10月？のカタログにある製品が対象）</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外刃と内刃を接触させ、互いに研ぐことで切れ味を保つ仕組み。</t>
+    <rPh sb="0" eb="1">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タモ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2つの刃を使って、最初の刃で毛穴から毛を引き出し、次の刃がそれをカットする仕組み。</t>
+    <rPh sb="3" eb="4">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケアナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -342,11 +1378,29 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -356,11 +1410,50 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,10 +1688,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1380,6 +2473,247 @@
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>129</v>
+      </c>
+      <c r="H57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" t="s">
+        <v>112</v>
+      </c>
+      <c r="H58" t="s">
+        <v>131</v>
+      </c>
+      <c r="I58" t="s">
+        <v>132</v>
+      </c>
+      <c r="J58" t="s">
+        <v>133</v>
+      </c>
+      <c r="K58" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="H59" t="s">
+        <v>135</v>
+      </c>
+      <c r="J59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="H60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" t="s">
+        <v>146</v>
+      </c>
+      <c r="H61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" t="s">
+        <v>119</v>
+      </c>
+      <c r="F62" t="s">
+        <v>119</v>
+      </c>
+      <c r="H62" t="s">
+        <v>118</v>
+      </c>
+      <c r="I62" t="s">
+        <v>118</v>
+      </c>
+      <c r="J62" t="s">
+        <v>118</v>
+      </c>
+      <c r="K62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" t="s">
+        <v>128</v>
+      </c>
+      <c r="H64" t="s">
+        <v>127</v>
+      </c>
+      <c r="I64" t="s">
+        <v>127</v>
+      </c>
+      <c r="J64" t="s">
+        <v>118</v>
+      </c>
+      <c r="K64" t="s">
+        <v>118</v>
+      </c>
+      <c r="M64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="H65" t="s">
+        <v>127</v>
+      </c>
+      <c r="M65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="H66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" t="s">
+        <v>127</v>
+      </c>
+      <c r="H67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+      <c r="H68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="H70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="H71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>144</v>
+      </c>
+      <c r="H72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1395,14 +2729,635 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="5" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C17:E17"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2">
+        <f>B6</f>
+        <v>43091.377159953707</v>
+      </c>
+      <c r="C3" s="2">
+        <f>C27</f>
+        <v>43091.493603819443</v>
+      </c>
+      <c r="D3" s="3">
+        <f>C3-B3</f>
+        <v>0.11644386573607335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43091.377159953707</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43091.378526967594</v>
+      </c>
+      <c r="D6" s="3">
+        <f>C6-B6</f>
+        <v>1.3670138869201764E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43091.378652546293</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43091.381806134261</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7-B7</f>
+        <v>3.1535879679722711E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43091.382096412039</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43091.393698611108</v>
+      </c>
+      <c r="D8" s="3">
+        <f>C8-B8</f>
+        <v>1.1602199068875052E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43091.393986574076</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43091.413206018522</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" ref="D9:D27" si="0">C9-B9</f>
+        <v>1.921944444620749E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43091.413321759261</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43091.417632291668</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3105324075440876E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43091.417743055557</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43091.430316203703</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2573148145747837E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43091.427083333336</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43091.429190740739</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1074074029456824E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43091.430510763887</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43091.435918402778</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>5.4076388914836571E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43091.436086226851</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43091.442346180556</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>6.259953705011867E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43091.442790740737</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43091.448275462964</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>5.4847222272655927E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43091.449667824076</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43091.450115509258</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>4.4768518273485824E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43091.450505324072</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43091.454011458336</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5061342641711235E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43091.454203703703</v>
+      </c>
+      <c r="C18" s="2">
+        <v>43091.459789583336</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5858796331449412E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43091.460068749999</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43091.461895601853</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8268518542754464E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43091.462033449076</v>
+      </c>
+      <c r="C20" s="2">
+        <v>43091.463463194443</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4297453672043048E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43091.463624884258</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43091.464141319448</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>5.1643518963828683E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43091.464435069443</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43091.467539930556</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1048611126607284E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2">
+        <v>43091.467974421299</v>
+      </c>
+      <c r="C23" s="2">
+        <v>43091.470161226855</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>2.18680555553874E-3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43091.470715046293</v>
+      </c>
+      <c r="C24" s="2">
+        <v>43091.484466898146</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3751851853157859E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43091.485162037039</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43091.488060069445</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8980324059375562E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="2">
+        <v>43091.488206828704</v>
+      </c>
+      <c r="C26" s="2">
+        <v>43091.492361111108</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1542824037605897E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43091.492708333331</v>
+      </c>
+      <c r="C27" s="2">
+        <v>43091.493603819443</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>8.9548611140344292E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>